--- a/back/scriptImport/dataPartenaire.xlsx
+++ b/back/scriptImport/dataPartenaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pikac\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\EstyaTicketing\back\scriptImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A760AA7-3130-4528-9B2A-6E7D9CDF1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F35184-340B-406F-B107-7AC3DC67F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2535" windowWidth="21570" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -966,7 +966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1136,23 +1136,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1183,7 +1180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1485,12 +1482,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1514,32 +1511,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1561,18 +1558,18 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="10" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5"/>
-    <col min="6" max="6" width="40.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="20" customWidth="1"/>
     <col min="7" max="7" width="80.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="10"/>
     <col min="9" max="11" width="11.42578125" style="4"/>
@@ -1580,7 +1577,7 @@
     <col min="13" max="13" width="40.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1593,7 @@
       <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1621,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1627,7 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -1643,7 +1640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1649,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -1665,7 +1662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -1686,7 +1683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -1707,7 +1704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
@@ -1716,7 +1713,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -1729,7 +1726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -1738,7 +1735,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="9"/>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -1751,7 +1748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -1760,7 +1757,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="9"/>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -1773,7 +1770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>57</v>
       </c>
@@ -1782,7 +1779,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="9"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -1795,7 +1792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +1801,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="9"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -1817,7 +1814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1823,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="9"/>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -1839,7 +1836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>69</v>
       </c>
@@ -1848,7 +1845,7 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="9"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -1861,7 +1858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>73</v>
       </c>
@@ -1870,7 +1867,7 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="9"/>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -1883,7 +1880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1892,7 +1889,7 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -1905,7 +1902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>81</v>
       </c>
@@ -1914,7 +1911,7 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="9"/>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -1927,7 +1924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>85</v>
       </c>
@@ -1936,7 +1933,7 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="9"/>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -1949,7 +1946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>89</v>
       </c>
@@ -1958,7 +1955,7 @@
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="9"/>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>243990427222</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -1971,7 +1968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +1977,7 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="9"/>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -1993,7 +1990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>96</v>
       </c>
@@ -2002,7 +1999,7 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="9"/>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>23794063731</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -2015,7 +2012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>99</v>
       </c>
@@ -2024,7 +2021,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="9"/>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="18" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -2037,7 +2034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>103</v>
       </c>
@@ -2046,7 +2043,7 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="9"/>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="18" t="s">
         <v>105</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -2059,7 +2056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>107</v>
       </c>
@@ -2081,7 +2078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>110</v>
       </c>
@@ -2090,7 +2087,7 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="18" t="s">
         <v>112</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -2103,7 +2100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>114</v>
       </c>
@@ -2112,7 +2109,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="9"/>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="18" t="s">
         <v>116</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -2125,7 +2122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>118</v>
       </c>
@@ -2134,7 +2131,7 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="9"/>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="18" t="s">
         <v>120</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -2147,7 +2144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>122</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>123</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>124</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -2168,7 +2165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>126</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>127</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="18" t="s">
         <v>128</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -2189,7 +2186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>130</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="18" t="s">
         <v>132</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -2210,7 +2207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>134</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>135</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="18" t="s">
         <v>136</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2231,7 +2228,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>139</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>140</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -2252,7 +2249,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>144</v>
       </c>
@@ -2261,7 +2258,7 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="9"/>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="18" t="s">
         <v>146</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -2274,7 +2271,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>149</v>
       </c>
@@ -2283,7 +2280,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="9"/>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>151</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -2296,7 +2293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>153</v>
       </c>
@@ -2305,7 +2302,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="9"/>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="18" t="s">
         <v>155</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2318,7 +2315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>158</v>
       </c>
@@ -2327,7 +2324,7 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="9"/>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="18" t="s">
         <v>160</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -2340,7 +2337,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>163</v>
       </c>
@@ -2349,7 +2346,7 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="9"/>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="18" t="s">
         <v>165</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -2362,7 +2359,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>168</v>
       </c>
@@ -2371,7 +2368,7 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="9"/>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="18" t="s">
         <v>170</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -2384,7 +2381,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>172</v>
       </c>
@@ -2393,7 +2390,7 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="9"/>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="18" t="s">
         <v>174</v>
       </c>
       <c r="G37" s="12" t="s">
@@ -2406,7 +2403,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>177</v>
       </c>
@@ -2415,7 +2412,7 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="9"/>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -2428,7 +2425,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>181</v>
       </c>
@@ -2437,7 +2434,7 @@
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="9"/>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="18" t="s">
         <v>183</v>
       </c>
       <c r="G39" s="12" t="s">
@@ -2450,7 +2447,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>185</v>
       </c>
@@ -2459,7 +2456,7 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="9"/>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="18" t="s">
         <v>187</v>
       </c>
       <c r="G40" s="12" t="s">
@@ -2472,7 +2469,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>189</v>
       </c>
@@ -2481,7 +2478,7 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="9"/>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>24176425551</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -2494,7 +2491,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>193</v>
       </c>
@@ -2503,7 +2500,7 @@
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="9"/>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="18" t="s">
         <v>195</v>
       </c>
       <c r="G42" s="12" t="s">
@@ -2516,7 +2513,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>198</v>
       </c>
@@ -2525,7 +2522,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="9"/>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="18" t="s">
         <v>200</v>
       </c>
       <c r="G43" s="12" t="s">
@@ -2538,7 +2535,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>203</v>
       </c>
@@ -2547,7 +2544,7 @@
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="9"/>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="18" t="s">
         <v>205</v>
       </c>
       <c r="G44" s="12" t="s">
@@ -2560,7 +2557,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>208</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>209</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="18" t="s">
         <v>210</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -2581,7 +2578,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18" customHeight="1">
+    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>213</v>
       </c>
@@ -2590,7 +2587,7 @@
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="9"/>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="18" t="s">
         <v>215</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -2603,7 +2600,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18" customHeight="1">
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>217</v>
       </c>
@@ -2612,7 +2609,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="9"/>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="18" t="s">
         <v>219</v>
       </c>
       <c r="G47" s="12" t="s">
@@ -2625,7 +2622,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18" customHeight="1">
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>222</v>
       </c>
@@ -2634,7 +2631,7 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="9"/>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="18" t="s">
         <v>224</v>
       </c>
       <c r="G48" s="12" t="s">
@@ -2647,7 +2644,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18" customHeight="1">
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>227</v>
       </c>
@@ -2656,7 +2653,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="9"/>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="18" t="s">
         <v>229</v>
       </c>
       <c r="G49" s="12" t="s">
@@ -2669,7 +2666,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18" customHeight="1">
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>232</v>
       </c>
@@ -2678,7 +2675,7 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="9"/>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="18" t="s">
         <v>234</v>
       </c>
       <c r="G50" s="12" t="s">
@@ -2691,7 +2688,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18" customHeight="1">
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>237</v>
       </c>
@@ -2700,7 +2697,7 @@
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="9"/>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="18" t="s">
         <v>239</v>
       </c>
       <c r="G51" s="12" t="s">
@@ -2713,7 +2710,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18" customHeight="1">
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>242</v>
       </c>
@@ -2721,7 +2718,7 @@
         <v>243</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="18" t="s">
         <v>244</v>
       </c>
       <c r="G52" s="12" t="s">
@@ -2734,7 +2731,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18" customHeight="1">
+    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>247</v>
       </c>
@@ -2743,7 +2740,7 @@
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="9"/>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="18" t="s">
         <v>249</v>
       </c>
       <c r="G53" s="12" t="s">
@@ -2756,7 +2753,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18" customHeight="1">
+    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>251</v>
       </c>
@@ -2765,7 +2762,7 @@
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="9"/>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="18" t="s">
         <v>253</v>
       </c>
       <c r="G54" s="12" t="s">
@@ -2778,7 +2775,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18" customHeight="1">
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>255</v>
       </c>
@@ -2787,7 +2784,7 @@
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="9"/>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="18" t="s">
         <v>257</v>
       </c>
       <c r="G55" s="12" t="s">
@@ -2800,7 +2797,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18" customHeight="1">
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>259</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>260</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="18" t="s">
         <v>261</v>
       </c>
       <c r="G56" s="12" t="s">
@@ -2821,7 +2818,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18" customHeight="1">
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>264</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>265</v>
       </c>
       <c r="C57" s="13"/>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="18" t="s">
         <v>266</v>
       </c>
       <c r="G57" s="12" t="s">
@@ -2842,7 +2839,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18" customHeight="1">
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>269</v>
       </c>
@@ -2864,7 +2861,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" customHeight="1">
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>144</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18" customHeight="1">
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>275</v>
       </c>
@@ -2904,7 +2901,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" customHeight="1">
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>279</v>
       </c>
@@ -2924,7 +2921,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18" customHeight="1">
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>283</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18" customHeight="1">
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>287</v>
       </c>
@@ -2960,11 +2957,11 @@
       <c r="L63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="20" t="s">
+      <c r="M63" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18" customHeight="1">
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>291</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18" customHeight="1">
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>294</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18" customHeight="1">
+    <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>297</v>
       </c>
@@ -3024,7 +3021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18" customHeight="1">
+    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>301</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18" customHeight="1">
+    <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>305</v>
       </c>
@@ -3064,8 +3061,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1">
-      <c r="M73" s="21"/>
+    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M60">
